--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,197 +201,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条评论有多张图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repertory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、评论表：comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、购物车：shopping_cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、购物车和商品中间表：shopping_cart_commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、商品分类表:type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、订单表：order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、订单和商品的中间表：order_commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、角色表：role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、权限表：authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>5、商品图片表：commodity_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、评论图片表：comment_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易成功时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3、商品表：commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一条评论有多张图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repertory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格（如：颜色-蓝色；尺寸-39；）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、商品规格表：commodity_qualification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、评论表：comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、购物车：shopping_cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、购物车和商品中间表：shopping_cart_commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、商品分类表:type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、订单表：order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、订单和商品的中间表：order_commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_commodity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、角色表：role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、权限表：authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authority_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>5、商品图片表：commodity_images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、评论图片表：comment_images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易成功时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>succeed_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -863,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,11 +873,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -981,7 +965,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1024,7 +1008,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1075,7 +1059,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -1085,58 +1069,58 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>54</v>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,19 +1131,17 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1167,18 +1149,16 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1186,23 +1166,29 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="1"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1210,36 +1196,34 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1248,21 +1232,21 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,19 +1257,17 @@
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1293,18 +1275,16 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1325,9 +1305,7 @@
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1335,39 +1313,43 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1381,7 +1363,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1391,7 +1373,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1400,7 +1382,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1408,9 +1390,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1424,7 +1404,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1434,7 +1414,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1443,7 +1423,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1451,116 +1431,118 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="B79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E79" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="B83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="B85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,9 +1553,7 @@
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1581,18 +1561,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -1608,130 +1586,96 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="1" t="s">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4" t="s">
+      <c r="D98" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>76</v>
-      </c>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D102" s="4"/>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>81</v>
-      </c>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>80</v>
-      </c>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>3、商品表：commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型更好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,13 +423,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1039,9 @@
       <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1080,25 +1089,27 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
@@ -1106,26 +1117,28 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1138,19 +1151,17 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1158,7 +1169,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1167,27 +1178,27 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1196,35 +1207,35 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1232,26 +1243,28 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1264,19 +1277,17 @@
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1284,7 +1295,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1292,7 +1303,9 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1319,19 +1332,17 @@
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1339,7 +1350,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1348,7 +1359,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1356,25 +1367,25 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1382,7 +1393,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1390,7 +1401,9 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1403,19 +1416,17 @@
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1423,7 +1434,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1432,7 +1443,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1440,89 +1451,89 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="4" t="s">
-        <v>61</v>
+      <c r="B75" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
-        <v>83</v>
+      <c r="B77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="B79" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
+      <c r="B80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="5"/>
@@ -1530,27 +1541,29 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
@@ -1567,119 +1580,126 @@
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="B91" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1" t="s">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>71</v>
       </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="s">
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="s">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E80:E81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -763,7 +763,7 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,26 @@
   </si>
   <si>
     <t>json类型更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、反馈表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,13 +443,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1534,7 @@
       <c r="D80" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1520,7 +1543,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -1683,19 +1706,33 @@
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>91</v>
+      </c>
       <c r="B103" s="4"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
+      <c r="B105" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,10 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15、反馈表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +396,34 @@
   </si>
   <si>
     <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creation_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、反馈表：feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,13 +467,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1561,7 @@
       <c r="D80" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1543,7 +1570,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="8"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -1707,31 +1734,51 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B103" s="4"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="D104" t="s">
+        <v>101</v>
       </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="D105" t="s">
+        <v>100</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="D106" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
         <v>95</v>
+      </c>
+      <c r="D108" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,42 @@
   </si>
   <si>
     <t>自身id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、评论回复表：comment_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复对应的评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复人的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,13 +503,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1600,7 @@
       <c r="D80" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1570,7 +1609,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -1779,6 +1818,48 @@
       </c>
       <c r="D108" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,9 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>5、商品图片表：commodity_images</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,6 +457,30 @@
   </si>
   <si>
     <t>回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、收藏表：collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,13 +524,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -943,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1061,7 +1085,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1129,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,7 +1220,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1322,7 +1346,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1561,46 +1585,46 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E80" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1609,7 +1633,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="10"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -1773,93 +1797,116 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="4"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
+      <c r="D113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D115" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -876,7 +876,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、商品规格表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,13 +536,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1159,130 +1174,132 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="1"/>
+      <c r="B31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="3"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="A33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="1"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1290,29 +1307,23 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1320,7 +1331,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1329,26 +1340,28 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="1"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1356,7 +1369,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1365,25 +1378,25 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1391,24 +1404,28 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="1"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1416,9 +1433,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1431,7 +1446,9 @@
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1439,22 +1456,24 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1462,43 +1481,39 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="1"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1506,7 +1521,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1515,7 +1530,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1529,17 +1544,19 @@
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="1"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1547,7 +1564,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1555,363 +1572,395 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="B78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="B79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="4"/>
+      <c r="B82" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="5"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="5"/>
+      <c r="B84" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="1"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4" t="s">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1" t="s">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>71</v>
       </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="s">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="4"/>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D108" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D109" t="s">
         <v>99</v>
       </c>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D110" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="8" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D112" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D114" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D115" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D120" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="10" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="10" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D125" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E84:E85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,334 +165,365 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>购买次数统计(销量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creation_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下架时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述(详情）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条评论有多张图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repertory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、评论表：comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、购物车：shopping_cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、购物车和商品中间表：shopping_cart_commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、商品分类表:type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、订单表：order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、角色表：role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、权限表：authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、商品图片表：commodity_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、评论图片表：comment_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易成功时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、商品表：commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creation_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、反馈表：feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、评论回复表：comment_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复对应的评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复人的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、收藏表：collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、商品规格表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>states</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态（是否上架）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>购买次数统计(销量)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creation_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下架时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品描述(详情）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一条评论有多张图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repertory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、评论表：comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、购物车：shopping_cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、购物车和商品中间表：shopping_cart_commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、商品分类表:type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、订单表：order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、订单和商品的中间表：order_commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人的姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>commodity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_commodity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、角色表：role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、权限表：authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authority_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、商品图片表：commodity_images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、评论图片表：comment_images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易成功时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>succeed_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、商品表：commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json类型更好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creation_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15、反馈表：feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16、评论回复表：comment_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复对应的评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复人的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17、收藏表：collect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、商品规格表：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
+  </si>
+  <si>
+    <t>商品规格表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specification_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、订单和商品规格的中间表：order_specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买此商品规格的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -982,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,11 +1039,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1079,10 +1110,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1099,19 +1134,17 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1119,7 +1152,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1128,239 +1161,239 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="A35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1"/>
+      <c r="B36" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="3"/>
+      <c r="B37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="1"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="1"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1369,7 +1402,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1378,26 +1411,28 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="1"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1405,75 +1440,77 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="1"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1481,14 +1518,18 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1501,9 +1542,7 @@
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1511,43 +1550,41 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="1"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1555,7 +1592,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1563,15 +1600,15 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1579,149 +1616,149 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="1"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="4" t="s">
-        <v>61</v>
+      <c r="B80" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
-        <v>82</v>
+      <c r="B82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
-        <v>83</v>
+      <c r="B83" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="B84" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="12"/>
+      <c r="D85" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="5"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1729,29 +1766,37 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -1759,208 +1804,224 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4" t="s">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>71</v>
-      </c>
-      <c r="E101" s="4"/>
+      <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E103" s="1"/>
+      <c r="A103" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E104" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
+      <c r="B105" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>95</v>
-      </c>
       <c r="B107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D108" t="s">
-        <v>100</v>
-      </c>
+      <c r="B108" s="4"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
+      <c r="A109" t="s">
         <v>91</v>
       </c>
-      <c r="D109" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="1"/>
+      <c r="B109" s="4"/>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D110" t="s">
         <v>96</v>
       </c>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" t="s">
         <v>93</v>
       </c>
-      <c r="D111" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D117" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D118" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D119" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="10" t="s">
-        <v>111</v>
+      <c r="B122" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
-        <v>112</v>
+      <c r="A124" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D125" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D127" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="132">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,26 @@
   </si>
   <si>
     <t>购买此商品规格的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、退货表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orider_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,13 +587,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1726,7 +1749,7 @@
       <c r="D86" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1737,7 +1760,7 @@
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="12"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
@@ -2017,6 +2040,36 @@
       </c>
       <c r="D127" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -587,13 +587,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1078,17 +1081,19 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1096,7 +1101,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1105,7 +1110,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1114,36 +1119,36 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="B18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1151,164 +1156,172 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="B29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="B30" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="6"/>
+      <c r="A32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
-        <v>116</v>
-      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1316,47 +1329,39 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="1"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="3"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
@@ -1364,28 +1369,26 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1398,17 +1401,19 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="1"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1416,7 +1421,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1425,27 +1430,27 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1454,35 +1459,35 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="1"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1490,28 +1495,26 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1524,17 +1527,19 @@
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="1"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1542,7 +1547,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1550,9 +1555,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1579,17 +1582,19 @@
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="1"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1597,7 +1602,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1606,7 +1611,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1614,25 +1619,25 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="1"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1640,7 +1645,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1648,9 +1653,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1663,17 +1666,19 @@
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="1"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1681,7 +1686,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1689,91 +1694,91 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="1" t="s">
-        <v>42</v>
+      <c r="B81" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4" t="s">
-        <v>77</v>
+      <c r="B83" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E85" s="1"/>
+      <c r="B85" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="B86" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="13"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B89" s="1"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="5"/>
@@ -1781,41 +1786,39 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="4"/>
+      <c r="D91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E92" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,255 +1829,248 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96" s="1"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="B97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4" t="s">
-        <v>65</v>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="1"/>
+      <c r="A102" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>67</v>
-      </c>
+      <c r="B103" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B106" s="4"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>91</v>
+      </c>
       <c r="B108" s="4"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="4"/>
+      <c r="B109" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>96</v>
+      </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
-      </c>
-      <c r="E110" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D111" t="s">
-        <v>95</v>
-      </c>
-      <c r="E111" s="1"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
-        <v>88</v>
+      <c r="B112" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D112" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
-        <v>89</v>
+      <c r="B113" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D113" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>97</v>
+      <c r="B117" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D118" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>106</v>
+      <c r="B124" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D126" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>127</v>
+      <c r="B130" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="12" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E85:E86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -947,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,14 @@
   </si>
   <si>
     <t>orider_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建退货单时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,13 +595,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1756,7 @@
       <c r="D85" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1756,7 +1767,7 @@
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="14"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
@@ -2038,34 +2049,50 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,91 +145,413 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品参数，格式（标题1-内容1；标题2-内容2；）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买次数统计(销量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creation_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下架时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述(详情）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条评论有多张图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repertory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、评论表：comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、订单表：order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、角色表：role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、权限表：authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、商品图片表：commodity_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、评论图片表：comment_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易成功时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、商品表：commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creation_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、反馈表：feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、评论回复表：comment_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复对应的评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复人的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、收藏表：collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、商品规格表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>states</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态（是否上架）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人的姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_id</t>
+  </si>
+  <si>
+    <t>商品规格表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specification_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、订单和商品规格的中间表：order_specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买此商品规格的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、退货表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orider_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建退货单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specification_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>shopping_cart_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品参数，格式（标题1-内容1；标题2-内容2；）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买次数统计(销量)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creation_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下架时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品描述(详情）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一条评论有多张图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repertory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、评论表：comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、购物车：shopping_cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、购物车和商品中间表：shopping_cart_commodity</t>
+    <t>8、购物车：cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、购物车和商品规格中间表：cart_specification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,321 +559,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11、订单表：order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、角色表：role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、权限表：authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authority_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、商品图片表：commodity_images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、评论图片表：comment_images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易成功时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>succeed_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、商品表：commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json类型更好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creation_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15、反馈表：feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16、评论回复表：comment_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复对应的评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复人的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17、收藏表：collect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、商品规格表：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>states</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态（是否上架）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人的姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodity_id</t>
-  </si>
-  <si>
-    <t>商品规格表id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specification_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、订单和商品规格的中间表：order_specification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>购买此商品规格的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18、退货表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orider_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建退货单时间</t>
+    <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,15 +968,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5546875" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="51.44140625" customWidth="1"/>
@@ -1050,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,7 +1079,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1076,11 +1088,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1141,11 +1153,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E18" s="11"/>
     </row>
@@ -1158,7 +1170,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1190,7 +1202,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1201,7 +1213,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1212,42 +1224,42 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1265,11 +1277,11 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E30" s="11"/>
     </row>
@@ -1282,7 +1294,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1292,7 +1304,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1301,7 +1313,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1310,29 +1322,29 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1361,7 +1373,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1413,7 +1425,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1470,11 +1482,11 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1487,7 +1499,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1506,11 +1518,11 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -1539,7 +1551,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1594,7 +1606,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1613,7 +1625,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1622,7 +1634,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1630,25 +1642,27 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="B72" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1656,7 +1670,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1664,7 +1678,9 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1677,19 +1693,17 @@
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1697,7 +1711,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1705,91 +1719,91 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="4" t="s">
-        <v>57</v>
+      <c r="B81" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
-        <v>78</v>
+      <c r="B83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="B85" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="15"/>
+      <c r="B86" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="4"/>
+      <c r="B87" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="5"/>
@@ -1797,39 +1811,41 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E91" s="5"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,264 +1856,271 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>67</v>
-      </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="4"/>
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E104" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>91</v>
-      </c>
       <c r="B108" s="4"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D109" t="s">
-        <v>96</v>
-      </c>
+      <c r="A109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="4"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D110" t="s">
-        <v>95</v>
-      </c>
-      <c r="E110" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
         <v>88</v>
       </c>
-      <c r="D111" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D113" t="s">
         <v>89</v>
       </c>
-      <c r="D112" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D113" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D120" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D121" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
-        <v>107</v>
+      <c r="A124" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D126" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="14" t="s">
-        <v>38</v>
+      <c r="B127" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>127</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="12" t="s">
-        <v>128</v>
+      <c r="A130" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D135" t="s">
-        <v>133</v>
+      <c r="B135" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E86:E87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,13 +607,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1779,7 +1782,7 @@
       <c r="D86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1790,7 +1793,7 @@
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="15"/>
+      <c r="E87" s="16"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
@@ -2091,8 +2094,12 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="12" t="s">
-        <v>105</v>
+      <c r="B132" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/sql/数据库设计.xlsx
+++ b/sql/数据库设计.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,10 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18、退货表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,14 +560,26 @@
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：退货、换货、返修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、退货表 refunds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,13 +615,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,7 +728,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -769,7 +780,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -963,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -971,22 +982,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="51.44140625" customWidth="1"/>
-    <col min="5" max="5" width="57.88671875" customWidth="1"/>
+    <col min="1" max="1" width="52.375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="5" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1012,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1021,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1019,7 +1030,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1028,7 +1039,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1037,7 +1048,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1046,7 +1057,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1055,7 +1066,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1068,7 +1079,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -1079,7 +1090,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1088,7 +1099,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>57</v>
@@ -1099,14 +1110,14 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1126,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -1124,7 +1135,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -1133,7 +1144,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -1142,7 +1153,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
@@ -1153,7 +1164,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
         <v>114</v>
@@ -1164,14 +1175,14 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -1180,7 +1191,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -1189,7 +1200,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -1198,7 +1209,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -1209,7 +1220,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>26</v>
@@ -1220,7 +1231,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
@@ -1231,7 +1242,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -1244,7 +1255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>37</v>
@@ -1255,7 +1266,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>69</v>
@@ -1266,7 +1277,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="6" t="s">
         <v>27</v>
@@ -1277,7 +1288,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="11" t="s">
         <v>111</v>
@@ -1288,14 +1299,14 @@
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
@@ -1304,7 +1315,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="11" t="s">
         <v>109</v>
@@ -1313,7 +1324,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="11" t="s">
         <v>110</v>
@@ -1322,7 +1333,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>113</v>
@@ -1333,7 +1344,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>48</v>
@@ -1344,7 +1355,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
@@ -1353,28 +1364,28 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>70</v>
       </c>
@@ -1383,7 +1394,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>6</v>
@@ -1392,7 +1403,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>14</v>
@@ -1403,7 +1414,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>16</v>
@@ -1412,21 +1423,21 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -1435,7 +1446,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>6</v>
@@ -1444,7 +1455,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>7</v>
@@ -1453,7 +1464,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>27</v>
@@ -1464,7 +1475,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>8</v>
@@ -1473,7 +1484,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>29</v>
@@ -1482,7 +1493,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>37</v>
@@ -1493,14 +1504,14 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
@@ -1509,7 +1520,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>6</v>
@@ -1518,7 +1529,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>43</v>
@@ -1529,7 +1540,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>16</v>
@@ -1538,30 +1549,30 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>6</v>
@@ -1570,7 +1581,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>8</v>
@@ -1579,44 +1590,44 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>6</v>
@@ -1625,52 +1636,52 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2"/>
       <c r="B72" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>24</v>
@@ -1679,7 +1690,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>7</v>
@@ -1688,21 +1699,21 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>50</v>
       </c>
@@ -1711,7 +1722,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>32</v>
@@ -1720,7 +1731,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>41</v>
@@ -1729,7 +1740,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="2"/>
       <c r="B82" s="4" t="s">
         <v>53</v>
@@ -1740,7 +1751,7 @@
       </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="2"/>
       <c r="B83" s="4" t="s">
         <v>72</v>
@@ -1751,7 +1762,7 @@
       </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="2"/>
       <c r="B84" s="5" t="s">
         <v>77</v>
@@ -1762,7 +1773,7 @@
       </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="2"/>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -1773,7 +1784,7 @@
       </c>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="2"/>
       <c r="B86" s="4" t="s">
         <v>79</v>
@@ -1782,27 +1793,27 @@
       <c r="D86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="2"/>
       <c r="B87" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
@@ -1811,7 +1822,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>46</v>
@@ -1820,7 +1831,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>51</v>
@@ -1829,7 +1840,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>118</v>
@@ -1840,7 +1851,7 @@
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>121</v>
@@ -1851,21 +1862,21 @@
       </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>56</v>
       </c>
@@ -1874,7 +1885,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>55</v>
@@ -1883,7 +1894,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="2"/>
       <c r="B98" s="4" t="s">
         <v>59</v>
@@ -1894,7 +1905,7 @@
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="2"/>
       <c r="B99" s="4" t="s">
         <v>60</v>
@@ -1905,7 +1916,7 @@
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>64</v>
@@ -1916,26 +1927,26 @@
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>63</v>
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="B104" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="B105" s="4" t="s">
         <v>60</v>
       </c>
@@ -1944,7 +1955,7 @@
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="B106" s="4" t="s">
         <v>66</v>
       </c>
@@ -1953,22 +1964,22 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="B107" s="4"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="B108" s="4"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>87</v>
       </c>
       <c r="B109" s="4"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="B110" s="4" t="s">
         <v>82</v>
       </c>
@@ -1977,7 +1988,7 @@
       </c>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="B111" s="4" t="s">
         <v>83</v>
       </c>
@@ -1986,7 +1997,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="B112" s="4" t="s">
         <v>84</v>
       </c>
@@ -1994,7 +2005,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="B113" s="7" t="s">
         <v>85</v>
       </c>
@@ -2002,7 +2013,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="B114" s="8" t="s">
         <v>86</v>
       </c>
@@ -2010,17 +2021,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="B118" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="B119" s="9" t="s">
         <v>95</v>
       </c>
@@ -2028,7 +2039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="B120" s="9" t="s">
         <v>96</v>
       </c>
@@ -2036,7 +2047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="B121" s="9" t="s">
         <v>97</v>
       </c>
@@ -2044,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="B122" s="9" t="s">
         <v>37</v>
       </c>
@@ -2052,22 +2063,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="B125" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="B126" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="B127" s="10" t="s">
         <v>105</v>
       </c>
@@ -2075,25 +2086,25 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="B128" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="B131" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="B132" s="15" t="s">
         <v>118</v>
       </c>
@@ -2102,27 +2113,46 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="B133" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="B134" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="12" t="s">
+    <row r="135" spans="1:5">
+      <c r="B135" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="B136" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2"/>
+      <c r="B137" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E137" s="16"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" s="16" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
